--- a/data/input/absenteeism_data_33.xlsx
+++ b/data/input/absenteeism_data_33.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89668</v>
+        <v>15586</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice da Cunha</t>
+          <t>Sr. Pedro Henrique Souza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>5118.18</v>
+        <v>4178.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38876</v>
+        <v>79020</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel Porto</t>
+          <t>Yuri Caldeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>6696.52</v>
+        <v>5915.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91380</v>
+        <v>94326</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Ana Clara Costela</t>
+          <t>Luiz Henrique Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,205 +548,205 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>5429.68</v>
+        <v>4960.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71062</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diogo Nunes</t>
+          <t>Gabriela Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>10813.33</v>
+        <v>5443.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57991</v>
+        <v>89803</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Augusto da Rocha</t>
+          <t>Ana Beatriz da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>8661.82</v>
+        <v>3555.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91064</v>
+        <v>83010</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luana da Mata</t>
+          <t>Sabrina Lopes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>7389.34</v>
+        <v>7526.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4197</v>
+        <v>74754</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Stella Monteiro</t>
+          <t>Maria Fernanda Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>7813.02</v>
+        <v>12347.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38131</v>
+        <v>16236</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Henrique Correia</t>
+          <t>Francisco Freitas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>3632.76</v>
+        <v>12074.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50052</v>
+        <v>5898</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Ana Julia Cardoso</t>
+          <t>Fernando da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>5334.9</v>
+        <v>10319.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36114</v>
+        <v>89760</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Diogo Almeida</t>
+          <t>Thomas Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>11017.43</v>
+        <v>7176.4</v>
       </c>
     </row>
   </sheetData>
